--- a/Jitendra/Leaves.xlsx
+++ b/Jitendra/Leaves.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="7830"/>
+    <workbookView windowWidth="19785" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -63,6 +63,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -74,6 +119,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,72 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -177,9 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,187 +222,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,21 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,36 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -505,6 +460,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -518,148 +518,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -995,10 +995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1157,10 +1157,24 @@
         <v>6</v>
       </c>
       <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="21" spans="1:4">
+      <c r="A13" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>6</v>
+      <c r="D13" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
